--- a/xlsx/IPs.xlsx
+++ b/xlsx/IPs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="698">
   <si>
     <t>10.107.0.3</t>
   </si>
@@ -2746,11 +2746,15 @@
   <si>
     <t>174580, НО, Хвойнинский район, рп. Хвойная, ул.Красноармейская, 11</t>
   </si>
+  <si>
+    <t>Bad</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2804,7 +2808,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2827,6 +2831,39 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF0000"/>
+        <bgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF0000"/>
+        <bgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000"/>
+        <bgColor rgb="FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -2857,7 +2894,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2897,6 +2934,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3206,10 +3246,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="48.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3236,6 +3276,9 @@
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D2" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3247,6 +3290,9 @@
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D3" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -3258,6 +3304,9 @@
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D4" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -3269,6 +3318,9 @@
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D5" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -3280,6 +3332,9 @@
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D6" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -3291,6 +3346,9 @@
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D7" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -3302,6 +3360,9 @@
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D8" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -3313,6 +3374,9 @@
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D9" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -3324,6 +3388,9 @@
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D10" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -3335,6 +3402,9 @@
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D11" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -3346,6 +3416,9 @@
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D12" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -3357,6 +3430,9 @@
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D13" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -3368,6 +3444,9 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="D14" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -3379,6 +3458,9 @@
       <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D15" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -3390,6 +3472,9 @@
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D16" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -3401,6 +3486,9 @@
       <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D17" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -3412,6 +3500,9 @@
       <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D18" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -3423,6 +3514,9 @@
       <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="D19" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -3434,6 +3528,9 @@
       <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D20" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -3445,6 +3542,9 @@
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="D21" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -3456,6 +3556,9 @@
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="D22" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -3467,6 +3570,9 @@
       <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D23" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -3478,6 +3584,9 @@
       <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="D24" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -3489,6 +3598,9 @@
       <c r="C25" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="D25" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -3500,6 +3612,9 @@
       <c r="C26" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="D26" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -3511,6 +3626,9 @@
       <c r="C27" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="D27" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -3522,6 +3640,9 @@
       <c r="C28" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D28" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -3533,6 +3654,9 @@
       <c r="C29" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="D29" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -3544,6 +3668,9 @@
       <c r="C30" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D30" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -3555,6 +3682,9 @@
       <c r="C31" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="D31" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -3566,6 +3696,9 @@
       <c r="C32" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="D32" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -3577,6 +3710,9 @@
       <c r="C33" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="D33" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -3588,6 +3724,9 @@
       <c r="C34" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="D34" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -3599,6 +3738,9 @@
       <c r="C35" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="D35" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -3610,6 +3752,9 @@
       <c r="C36" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="D36" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -3621,6 +3766,9 @@
       <c r="C37" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="D37" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -3632,6 +3780,9 @@
       <c r="C38" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="D38" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -3643,6 +3794,9 @@
       <c r="C39" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="D39" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -3654,6 +3808,9 @@
       <c r="C40" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="D40" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -3665,6 +3822,9 @@
       <c r="C41" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="D41" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -3676,6 +3836,9 @@
       <c r="C42" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="D42" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -3687,6 +3850,9 @@
       <c r="C43" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="D43" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -3698,6 +3864,9 @@
       <c r="C44" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="D44" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -3709,6 +3878,9 @@
       <c r="C45" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="D45" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -3720,6 +3892,9 @@
       <c r="C46" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="D46" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -3731,6 +3906,9 @@
       <c r="C47" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="D47" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -3742,6 +3920,9 @@
       <c r="C48" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D48" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -3753,6 +3934,9 @@
       <c r="C49" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="D49" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -3764,6 +3948,9 @@
       <c r="C50" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="D50" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -3775,6 +3962,9 @@
       <c r="C51" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="D51" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -3786,6 +3976,9 @@
       <c r="C52" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="D52" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -3797,6 +3990,9 @@
       <c r="C53" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="D53" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
@@ -3808,6 +4004,9 @@
       <c r="C54" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="D54" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
@@ -3819,6 +4018,9 @@
       <c r="C55" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D55" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
@@ -3830,6 +4032,9 @@
       <c r="C56" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D56" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
@@ -3841,6 +4046,9 @@
       <c r="C57" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="D57" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -3852,6 +4060,9 @@
       <c r="C58" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="D58" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -3863,6 +4074,9 @@
       <c r="C59" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="D59" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
@@ -3874,6 +4088,9 @@
       <c r="C60" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="D60" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
@@ -3885,6 +4102,9 @@
       <c r="C61" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="D61" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -3896,6 +4116,9 @@
       <c r="C62" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="D62" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -3907,6 +4130,9 @@
       <c r="C63" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="D63" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
@@ -3918,6 +4144,9 @@
       <c r="C64" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="D64" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
@@ -3929,6 +4158,9 @@
       <c r="C65" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="D65" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
@@ -3940,6 +4172,9 @@
       <c r="C66" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="D66" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
@@ -3951,6 +4186,9 @@
       <c r="C67" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="D67" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
@@ -3962,6 +4200,9 @@
       <c r="C68" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="D68" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
@@ -3973,6 +4214,9 @@
       <c r="C69" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="D69" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
@@ -3984,6 +4228,9 @@
       <c r="C70" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="D70" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
@@ -3995,6 +4242,9 @@
       <c r="C71" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="D71" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -4006,6 +4256,9 @@
       <c r="C72" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="D72" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
@@ -4017,6 +4270,9 @@
       <c r="C73" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="D73" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -4028,6 +4284,9 @@
       <c r="C74" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="D74" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -4039,6 +4298,9 @@
       <c r="C75" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="D75" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
@@ -4050,6 +4312,9 @@
       <c r="C76" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="D76" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
@@ -4061,6 +4326,9 @@
       <c r="C77" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="D77" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
@@ -4072,6 +4340,9 @@
       <c r="C78" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="D78" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
@@ -4083,6 +4354,9 @@
       <c r="C79" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="D79" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
@@ -4094,6 +4368,9 @@
       <c r="C80" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="D80" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
@@ -4105,6 +4382,9 @@
       <c r="C81" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="D81" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -4116,6 +4396,9 @@
       <c r="C82" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="D82" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
@@ -4127,6 +4410,9 @@
       <c r="C83" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="D83" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
@@ -4138,6 +4424,9 @@
       <c r="C84" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="D84" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
@@ -4149,6 +4438,9 @@
       <c r="C85" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="D85" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
@@ -4160,6 +4452,9 @@
       <c r="C86" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="D86" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
@@ -4171,6 +4466,9 @@
       <c r="C87" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="D87" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
@@ -4182,6 +4480,9 @@
       <c r="C88" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="D88" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
@@ -4193,6 +4494,9 @@
       <c r="C89" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="D89" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
@@ -4204,6 +4508,9 @@
       <c r="C90" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="D90" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
@@ -4215,6 +4522,9 @@
       <c r="C91" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="D91" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
@@ -4226,6 +4536,9 @@
       <c r="C92" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="D92" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
@@ -4237,6 +4550,9 @@
       <c r="C93" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="D93" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
@@ -4248,6 +4564,9 @@
       <c r="C94" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="D94" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
@@ -4259,6 +4578,9 @@
       <c r="C95" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="D95" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
@@ -4270,6 +4592,9 @@
       <c r="C96" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="D96" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
@@ -4281,6 +4606,9 @@
       <c r="C97" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="D97" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
@@ -4292,6 +4620,9 @@
       <c r="C98" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="D98" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
@@ -4303,6 +4634,9 @@
       <c r="C99" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="D99" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
@@ -4314,6 +4648,9 @@
       <c r="C100" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="D100" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
@@ -4325,6 +4662,9 @@
       <c r="C101" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="D101" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
@@ -4336,6 +4676,9 @@
       <c r="C102" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="D102" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
@@ -4347,6 +4690,9 @@
       <c r="C103" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="D103" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
@@ -4358,6 +4704,9 @@
       <c r="C104" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="D104" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
@@ -4369,6 +4718,9 @@
       <c r="C105" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="D105" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
@@ -4380,6 +4732,9 @@
       <c r="C106" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="D106" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
@@ -4391,6 +4746,9 @@
       <c r="C107" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="D107" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
@@ -4402,6 +4760,9 @@
       <c r="C108" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="D108" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
@@ -4413,6 +4774,9 @@
       <c r="C109" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="D109" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
@@ -4424,6 +4788,9 @@
       <c r="C110" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D110" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
@@ -4435,6 +4802,9 @@
       <c r="C111" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="D111" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -4446,6 +4816,9 @@
       <c r="C112" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="D112" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
@@ -4457,6 +4830,9 @@
       <c r="C113" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="D113" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
@@ -4468,6 +4844,9 @@
       <c r="C114" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="D114" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
@@ -4479,6 +4858,9 @@
       <c r="C115" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="D115" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
@@ -4490,6 +4872,9 @@
       <c r="C116" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="D116" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
@@ -4501,6 +4886,9 @@
       <c r="C117" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="D117" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
@@ -4512,6 +4900,9 @@
       <c r="C118" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="D118" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
@@ -4523,6 +4914,9 @@
       <c r="C119" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="D119" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
@@ -4534,6 +4928,9 @@
       <c r="C120" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="D120" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
@@ -4545,6 +4942,9 @@
       <c r="C121" s="1" t="s">
         <v>119</v>
       </c>
+      <c r="D121" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
@@ -4556,6 +4956,9 @@
       <c r="C122" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="D122" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
@@ -4567,6 +4970,9 @@
       <c r="C123" s="1" t="s">
         <v>121</v>
       </c>
+      <c r="D123" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
@@ -4578,6 +4984,9 @@
       <c r="C124" s="1" t="s">
         <v>122</v>
       </c>
+      <c r="D124" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
@@ -4589,6 +4998,9 @@
       <c r="C125" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="D125" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
@@ -4600,6 +5012,9 @@
       <c r="C126" s="1" t="s">
         <v>124</v>
       </c>
+      <c r="D126" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
@@ -4611,6 +5026,9 @@
       <c r="C127" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="D127" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
@@ -4622,6 +5040,9 @@
       <c r="C128" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="D128" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
@@ -4633,6 +5054,9 @@
       <c r="C129" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="D129" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
@@ -4644,6 +5068,9 @@
       <c r="C130" s="1" t="s">
         <v>128</v>
       </c>
+      <c r="D130" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
@@ -4655,6 +5082,9 @@
       <c r="C131" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="D131" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
@@ -4666,6 +5096,9 @@
       <c r="C132" s="1" t="s">
         <v>130</v>
       </c>
+      <c r="D132" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
@@ -4677,6 +5110,9 @@
       <c r="C133" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="D133" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
@@ -4688,6 +5124,9 @@
       <c r="C134" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="D134" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
@@ -4699,6 +5138,9 @@
       <c r="C135" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="D135" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
@@ -4710,6 +5152,9 @@
       <c r="C136" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="D136" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
@@ -4721,6 +5166,9 @@
       <c r="C137" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="D137" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
@@ -4732,6 +5180,9 @@
       <c r="C138" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="D138" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
@@ -4743,6 +5194,9 @@
       <c r="C139" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="D139" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
@@ -4754,6 +5208,9 @@
       <c r="C140" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="D140" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
@@ -4765,6 +5222,9 @@
       <c r="C141" s="1" t="s">
         <v>139</v>
       </c>
+      <c r="D141" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
@@ -4776,6 +5236,9 @@
       <c r="C142" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="D142" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
@@ -4787,6 +5250,9 @@
       <c r="C143" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="D143" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
@@ -4798,6 +5264,9 @@
       <c r="C144" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="D144" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
@@ -4809,6 +5278,9 @@
       <c r="C145" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="D145" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
@@ -4820,6 +5292,9 @@
       <c r="C146" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="D146" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
@@ -4831,6 +5306,9 @@
       <c r="C147" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="D147" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
@@ -4842,6 +5320,9 @@
       <c r="C148" s="1" t="s">
         <v>146</v>
       </c>
+      <c r="D148" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
@@ -4853,6 +5334,9 @@
       <c r="C149" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="D149" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
@@ -4864,6 +5348,9 @@
       <c r="C150" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="D150" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
@@ -4875,6 +5362,9 @@
       <c r="C151" s="1" t="s">
         <v>149</v>
       </c>
+      <c r="D151" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
@@ -4886,6 +5376,9 @@
       <c r="C152" s="1" t="s">
         <v>150</v>
       </c>
+      <c r="D152" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
@@ -4897,6 +5390,9 @@
       <c r="C153" s="1" t="s">
         <v>151</v>
       </c>
+      <c r="D153" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
@@ -4908,6 +5404,9 @@
       <c r="C154" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="D154" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
@@ -4919,6 +5418,9 @@
       <c r="C155" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="D155" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
@@ -4930,6 +5432,9 @@
       <c r="C156" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="D156" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
@@ -4941,6 +5446,9 @@
       <c r="C157" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="D157" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
@@ -4952,6 +5460,9 @@
       <c r="C158" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="D158" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
@@ -4963,6 +5474,9 @@
       <c r="C159" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="D159" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
@@ -4974,6 +5488,9 @@
       <c r="C160" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="D160" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
@@ -4985,6 +5502,9 @@
       <c r="C161" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="D161" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
@@ -4996,6 +5516,9 @@
       <c r="C162" s="1" t="s">
         <v>160</v>
       </c>
+      <c r="D162" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
@@ -5007,6 +5530,9 @@
       <c r="C163" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="D163" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
@@ -5018,6 +5544,9 @@
       <c r="C164" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="D164" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
@@ -5029,6 +5558,9 @@
       <c r="C165" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="D165" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
@@ -5040,6 +5572,9 @@
       <c r="C166" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="D166" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
@@ -5051,6 +5586,9 @@
       <c r="C167" s="1" t="s">
         <v>165</v>
       </c>
+      <c r="D167" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
@@ -5062,6 +5600,9 @@
       <c r="C168" s="1" t="s">
         <v>166</v>
       </c>
+      <c r="D168" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
@@ -5073,6 +5614,9 @@
       <c r="C169" s="1" t="s">
         <v>167</v>
       </c>
+      <c r="D169" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
@@ -5084,6 +5628,9 @@
       <c r="C170" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="D170" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
@@ -5095,6 +5642,9 @@
       <c r="C171" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="D171" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
@@ -5106,6 +5656,9 @@
       <c r="C172" s="1" t="s">
         <v>170</v>
       </c>
+      <c r="D172" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
@@ -5117,6 +5670,9 @@
       <c r="C173" s="1" t="s">
         <v>171</v>
       </c>
+      <c r="D173" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
@@ -5128,6 +5684,9 @@
       <c r="C174" s="1" t="s">
         <v>172</v>
       </c>
+      <c r="D174" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
@@ -5139,6 +5698,9 @@
       <c r="C175" s="1" t="s">
         <v>173</v>
       </c>
+      <c r="D175" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
@@ -5150,6 +5712,9 @@
       <c r="C176" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="D176" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
@@ -5161,6 +5726,9 @@
       <c r="C177" s="1" t="s">
         <v>175</v>
       </c>
+      <c r="D177" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
@@ -5172,6 +5740,9 @@
       <c r="C178" s="1" t="s">
         <v>176</v>
       </c>
+      <c r="D178" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
@@ -5183,6 +5754,9 @@
       <c r="C179" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="D179" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
@@ -5194,6 +5768,9 @@
       <c r="C180" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="D180" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
@@ -5205,6 +5782,9 @@
       <c r="C181" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="D181" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
@@ -5216,6 +5796,9 @@
       <c r="C182" s="1" t="s">
         <v>180</v>
       </c>
+      <c r="D182" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
@@ -5227,6 +5810,9 @@
       <c r="C183" s="1" t="s">
         <v>181</v>
       </c>
+      <c r="D183" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
@@ -5238,6 +5824,9 @@
       <c r="C184" s="1" t="s">
         <v>182</v>
       </c>
+      <c r="D184" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
@@ -5249,6 +5838,9 @@
       <c r="C185" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="D185" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
@@ -5260,6 +5852,9 @@
       <c r="C186" s="1" t="s">
         <v>184</v>
       </c>
+      <c r="D186" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
@@ -5271,6 +5866,9 @@
       <c r="C187" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="D187" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
@@ -5282,6 +5880,9 @@
       <c r="C188" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="D188" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
@@ -5293,6 +5894,9 @@
       <c r="C189" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="D189" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
@@ -5304,6 +5908,9 @@
       <c r="C190" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="D190" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
@@ -5315,6 +5922,9 @@
       <c r="C191" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="D191" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
@@ -5326,6 +5936,9 @@
       <c r="C192" s="1" t="s">
         <v>190</v>
       </c>
+      <c r="D192" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
@@ -5337,6 +5950,9 @@
       <c r="C193" s="1" t="s">
         <v>191</v>
       </c>
+      <c r="D193" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
@@ -5348,6 +5964,9 @@
       <c r="C194" s="1" t="s">
         <v>192</v>
       </c>
+      <c r="D194" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
@@ -5359,6 +5978,9 @@
       <c r="C195" s="1" t="s">
         <v>193</v>
       </c>
+      <c r="D195" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
@@ -5370,6 +5992,9 @@
       <c r="C196" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="D196" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
@@ -5381,6 +6006,9 @@
       <c r="C197" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="D197" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
@@ -5392,6 +6020,9 @@
       <c r="C198" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="D198" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
@@ -5403,6 +6034,9 @@
       <c r="C199" s="1" t="s">
         <v>197</v>
       </c>
+      <c r="D199" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
@@ -5414,6 +6048,9 @@
       <c r="C200" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="D200" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
@@ -5425,6 +6062,9 @@
       <c r="C201" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="D201" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
@@ -5436,6 +6076,9 @@
       <c r="C202" s="1" t="s">
         <v>200</v>
       </c>
+      <c r="D202" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
@@ -5447,6 +6090,9 @@
       <c r="C203" s="1" t="s">
         <v>201</v>
       </c>
+      <c r="D203" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
@@ -5458,6 +6104,9 @@
       <c r="C204" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="D204" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
@@ -5469,6 +6118,9 @@
       <c r="C205" s="1" t="s">
         <v>203</v>
       </c>
+      <c r="D205" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
@@ -5480,6 +6132,9 @@
       <c r="C206" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="D206" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
@@ -5491,6 +6146,9 @@
       <c r="C207" s="1" t="s">
         <v>205</v>
       </c>
+      <c r="D207" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
@@ -5502,6 +6160,9 @@
       <c r="C208" s="1" t="s">
         <v>206</v>
       </c>
+      <c r="D208" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
@@ -5513,6 +6174,9 @@
       <c r="C209" s="1" t="s">
         <v>207</v>
       </c>
+      <c r="D209" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
@@ -5524,6 +6188,9 @@
       <c r="C210" s="1" t="s">
         <v>208</v>
       </c>
+      <c r="D210" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
@@ -5535,6 +6202,9 @@
       <c r="C211" s="1" t="s">
         <v>209</v>
       </c>
+      <c r="D211" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="212" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
@@ -5546,6 +6216,9 @@
       <c r="C212" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="D212" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
@@ -5557,6 +6230,9 @@
       <c r="C213" s="1" t="s">
         <v>211</v>
       </c>
+      <c r="D213" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
@@ -5568,6 +6244,9 @@
       <c r="C214" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="D214" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
@@ -5579,6 +6258,9 @@
       <c r="C215" s="1" t="s">
         <v>213</v>
       </c>
+      <c r="D215" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
@@ -5590,6 +6272,9 @@
       <c r="C216" s="1" t="s">
         <v>214</v>
       </c>
+      <c r="D216" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
@@ -5601,6 +6286,9 @@
       <c r="C217" s="1" t="s">
         <v>215</v>
       </c>
+      <c r="D217" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
@@ -5612,6 +6300,9 @@
       <c r="C218" s="1" t="s">
         <v>216</v>
       </c>
+      <c r="D218" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
@@ -5623,6 +6314,9 @@
       <c r="C219" s="1" t="s">
         <v>217</v>
       </c>
+      <c r="D219" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
@@ -5634,6 +6328,9 @@
       <c r="C220" s="1" t="s">
         <v>218</v>
       </c>
+      <c r="D220" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
@@ -5645,6 +6342,9 @@
       <c r="C221" s="1" t="s">
         <v>219</v>
       </c>
+      <c r="D221" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
@@ -5656,6 +6356,9 @@
       <c r="C222" s="1" t="s">
         <v>220</v>
       </c>
+      <c r="D222" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
@@ -5667,6 +6370,9 @@
       <c r="C223" s="1" t="s">
         <v>221</v>
       </c>
+      <c r="D223" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
@@ -5678,6 +6384,9 @@
       <c r="C224" s="1" t="s">
         <v>222</v>
       </c>
+      <c r="D224" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
@@ -5689,6 +6398,9 @@
       <c r="C225" s="1" t="s">
         <v>223</v>
       </c>
+      <c r="D225" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
@@ -5700,6 +6412,9 @@
       <c r="C226" s="1" t="s">
         <v>224</v>
       </c>
+      <c r="D226" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
@@ -5711,6 +6426,9 @@
       <c r="C227" s="1" t="s">
         <v>225</v>
       </c>
+      <c r="D227" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
@@ -5722,6 +6440,9 @@
       <c r="C228" s="1" t="s">
         <v>226</v>
       </c>
+      <c r="D228" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
@@ -5733,6 +6454,9 @@
       <c r="C229" s="1" t="s">
         <v>227</v>
       </c>
+      <c r="D229" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
@@ -5744,6 +6468,9 @@
       <c r="C230" s="1" t="s">
         <v>228</v>
       </c>
+      <c r="D230" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
@@ -5755,6 +6482,9 @@
       <c r="C231" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="D231" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
@@ -5766,6 +6496,9 @@
       <c r="C232" s="1" t="s">
         <v>230</v>
       </c>
+      <c r="D232" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
@@ -5777,6 +6510,9 @@
       <c r="C233" s="1" t="s">
         <v>231</v>
       </c>
+      <c r="D233" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
@@ -5788,6 +6524,9 @@
       <c r="C234" s="1" t="s">
         <v>232</v>
       </c>
+      <c r="D234" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
@@ -5799,6 +6538,9 @@
       <c r="C235" s="1" t="s">
         <v>233</v>
       </c>
+      <c r="D235" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
@@ -5810,6 +6552,9 @@
       <c r="C236" s="1" t="s">
         <v>234</v>
       </c>
+      <c r="D236" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
@@ -5821,6 +6566,9 @@
       <c r="C237" s="1" t="s">
         <v>235</v>
       </c>
+      <c r="D237" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
@@ -5832,6 +6580,9 @@
       <c r="C238" s="1" t="s">
         <v>236</v>
       </c>
+      <c r="D238" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
@@ -5843,6 +6594,9 @@
       <c r="C239" s="1" t="s">
         <v>237</v>
       </c>
+      <c r="D239" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
@@ -5854,6 +6608,9 @@
       <c r="C240" s="1" t="s">
         <v>238</v>
       </c>
+      <c r="D240" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
@@ -5865,6 +6622,9 @@
       <c r="C241" s="1" t="s">
         <v>239</v>
       </c>
+      <c r="D241" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
@@ -5876,6 +6636,9 @@
       <c r="C242" s="1" t="s">
         <v>240</v>
       </c>
+      <c r="D242" t="s" s="17">
+        <v>697</v>
+      </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
@@ -5886,6 +6649,9 @@
       </c>
       <c r="C243" s="1" t="s">
         <v>241</v>
+      </c>
+      <c r="D243" t="s" s="17">
+        <v>697</v>
       </c>
     </row>
   </sheetData>
